--- a/docs/CheckSheetData.xlsx
+++ b/docs/CheckSheetData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9738608f1d31976/BASF/Mahindra_Mahindra/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DAAA6B8B-59BC-431D-9D9F-4B6F50DF6270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81644952-92AA-41FA-8DCE-B6E1DC44AE70}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{DAAA6B8B-59BC-431D-9D9F-4B6F50DF6270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4EA7151-FAED-4C06-9352-7628E6151C25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{677FF9DA-2C20-47B7-BF96-28B39A403290}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{677FF9DA-2C20-47B7-BF96-28B39A403290}"/>
   </bookViews>
   <sheets>
     <sheet name="CheckSheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="268">
   <si>
     <t>Check Sheet for Smart Factory</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Digital workforce tools: role-based mobile apps, AR assist for complex tasks, and AI copilots for engineers, planners, and maintenance teams.</t>
   </si>
   <si>
-    <t>Strategy and Governance</t>
-  </si>
-  <si>
     <t>Asset Connectivity and OEE</t>
   </si>
   <si>
@@ -366,12 +363,6 @@
     <t>Digital Maturity</t>
   </si>
   <si>
-    <t>Maturity Stage</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Rating</t>
   </si>
   <si>
@@ -384,12 +375,6 @@
     <t>Basic</t>
   </si>
   <si>
-    <t>1 – Connected &amp; Visible</t>
-  </si>
-  <si>
-    <t>Governance is ad hoc; strategy not formally aligned with digital initiatives; documentation inconsistent; accountability unclear</t>
-  </si>
-  <si>
     <t>1 – Basic Connectivity</t>
   </si>
   <si>
@@ -456,12 +441,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>2 – Integrated &amp; Data Driven</t>
-  </si>
-  <si>
-    <t>Governance structures defined (RACI, PMO); digital initiatives tracked; standardized documentation; basic alignment with corporate strategy</t>
-  </si>
-  <si>
     <t>2 – Centralized Monitoring</t>
   </si>
   <si>
@@ -528,12 +507,6 @@
     <t>Advanced</t>
   </si>
   <si>
-    <t>3 – Predictive &amp; Optimized Operations</t>
-  </si>
-  <si>
-    <t>Governance embedded in enterprise processes; portfolio prioritization based on ROI; proactive risk management; strategy linked to operational KPIs</t>
-  </si>
-  <si>
     <t>3 – Integrated OEE Analytics</t>
   </si>
   <si>
@@ -600,12 +573,6 @@
     <t>Leading</t>
   </si>
   <si>
-    <t>4 – Flexible, Agile Factory</t>
-  </si>
-  <si>
-    <t>Governance frameworks adaptive to change; cross‑functional steering committees active; dynamic reprioritization of initiatives; strategy cascaded across sites</t>
-  </si>
-  <si>
     <t>4 – Predictive OEE Optimization</t>
   </si>
   <si>
@@ -672,12 +639,6 @@
     <t>Nirvana</t>
   </si>
   <si>
-    <t>5 – Autonomous, Human‑Centric SDF</t>
-  </si>
-  <si>
-    <t>Governance fully autonomous and AI‑assisted; strategy continuously optimized; enterprise‑wide accountability embedded; governance insights tied directly to business outcomes</t>
-  </si>
-  <si>
     <t>5 – Autonomous Asset Management</t>
   </si>
   <si>
@@ -859,13 +820,34 @@
   </si>
   <si>
     <t>Re-think on Transformational part</t>
+  </si>
+  <si>
+    <t>BIW 1</t>
+  </si>
+  <si>
+    <t>BIW 2</t>
+  </si>
+  <si>
+    <t>BIW 3</t>
+  </si>
+  <si>
+    <t>Paint Shop 1</t>
+  </si>
+  <si>
+    <t>Paint Shop 2</t>
+  </si>
+  <si>
+    <t>Assembly Line 1</t>
+  </si>
+  <si>
+    <t>Assembly Line 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,8 +916,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,6 +953,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE9F8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7E350E"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1151,68 +1147,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1224,11 +1160,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,6 +1241,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1564,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAE9563-2324-43E8-8B34-BCB4496CE517}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,35 +1578,56 @@
     <col min="4" max="4" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E3" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -1614,7 +1635,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -1624,7 +1645,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1652,7 +1673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1.2</v>
       </c>
@@ -1662,37 +1683,37 @@
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="27">
         <v>0.7</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="31"/>
+    <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="32"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
@@ -1706,7 +1727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -1714,7 +1735,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2.1</v>
       </c>
@@ -1724,7 +1745,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -1738,14 +1759,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="27">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -1753,9 +1774,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="15" t="s">
         <v>30</v>
       </c>
@@ -1771,13 +1792,13 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="27">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -1785,14 +1806,14 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
@@ -1817,26 +1838,26 @@
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>44</v>
       </c>
@@ -1848,7 +1869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>47</v>
@@ -1866,7 +1887,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
@@ -1878,7 +1899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>52</v>
       </c>
@@ -1890,7 +1911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>3.2</v>
       </c>
@@ -1900,7 +1921,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>56</v>
       </c>
@@ -1912,7 +1933,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>58</v>
       </c>
@@ -1932,7 +1953,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>61</v>
       </c>
@@ -1942,7 +1963,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>63</v>
       </c>
@@ -1952,7 +1973,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>65</v>
@@ -1970,7 +1991,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>67</v>
       </c>
@@ -1980,7 +2001,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>69</v>
       </c>
@@ -2000,7 +2021,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>72</v>
       </c>
@@ -2010,7 +2031,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>74</v>
       </c>
@@ -2020,7 +2041,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>4.3</v>
       </c>
@@ -2030,7 +2051,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>77</v>
       </c>
@@ -2040,7 +2061,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>79</v>
       </c>
@@ -2050,7 +2071,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>81</v>
@@ -2068,7 +2089,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>83</v>
       </c>
@@ -2078,7 +2099,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>85</v>
       </c>
@@ -2098,7 +2119,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>88</v>
       </c>
@@ -2108,7 +2129,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>90</v>
       </c>
@@ -2128,7 +2149,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>93</v>
       </c>
@@ -2138,7 +2159,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>95</v>
       </c>
@@ -2150,6 +2171,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -2159,14 +2188,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2174,40 +2195,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A27CA7-C1ED-4238-A9F4-A0C585E741EE}">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" customWidth="1"/>
-    <col min="18" max="18" width="33.85546875" customWidth="1"/>
-    <col min="20" max="20" width="29.140625" customWidth="1"/>
-    <col min="21" max="21" width="32.7109375" customWidth="1"/>
-    <col min="24" max="24" width="25.42578125" customWidth="1"/>
-    <col min="27" max="27" width="33.7109375" customWidth="1"/>
-    <col min="30" max="30" width="41.85546875" customWidth="1"/>
-    <col min="32" max="32" width="29.140625" customWidth="1"/>
-    <col min="33" max="33" width="45.7109375" customWidth="1"/>
-    <col min="35" max="35" width="29.5703125" customWidth="1"/>
-    <col min="36" max="36" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" customWidth="1"/>
+    <col min="17" max="17" width="29.140625" customWidth="1"/>
+    <col min="18" max="18" width="32.7109375" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" customWidth="1"/>
+    <col min="24" max="24" width="33.7109375" customWidth="1"/>
+    <col min="27" max="27" width="41.85546875" customWidth="1"/>
+    <col min="29" max="29" width="29.140625" customWidth="1"/>
+    <col min="30" max="30" width="45.7109375" customWidth="1"/>
+    <col min="32" max="32" width="29.5703125" customWidth="1"/>
+    <col min="33" max="33" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="35"/>
+    <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
       <c r="B1" s="41" t="s">
         <v>97</v>
       </c>
       <c r="C1" s="41"/>
-      <c r="D1" s="36"/>
+      <c r="D1" s="1"/>
       <c r="E1" s="41" t="s">
         <v>98</v>
       </c>
@@ -2253,638 +2272,585 @@
       </c>
       <c r="AD1" s="41"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="42"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="40"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="42"/>
+      <c r="H2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="40"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="42"/>
+      <c r="K2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="40"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="42"/>
+      <c r="N2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="40"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="R2" s="42"/>
+      <c r="Q2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="40"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="42"/>
+      <c r="T2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" s="40"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="42"/>
+      <c r="W2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="40"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA2" s="42"/>
+      <c r="Z2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD2" s="42"/>
+      <c r="AC2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="39" t="s">
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG4" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="B5" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="37" t="s">
+      <c r="C5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="U4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="X4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ4" s="39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="40" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="M5" s="1"/>
+      <c r="N5" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="40" t="s">
+      <c r="O5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="40" t="s">
+      <c r="R5" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="S5" s="1"/>
+      <c r="T5" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="40" t="s">
+      <c r="U5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="V5" s="1"/>
+      <c r="W5" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="40" t="s">
+      <c r="X5" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="40" t="s">
+      <c r="AA5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="40" t="s">
+      <c r="AD5" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="40" t="s">
+      <c r="AG5" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AD5" s="12" t="s">
+    </row>
+    <row r="6" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="40" t="s">
+      <c r="B6" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="40" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="AJ5" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="I6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="40" t="s">
+      <c r="L6" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="40" t="s">
+      <c r="O6" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="40" t="s">
+      <c r="R6" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="S6" s="1"/>
+      <c r="T6" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="40" t="s">
+      <c r="U6" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="V6" s="1"/>
+      <c r="W6" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="40" t="s">
+      <c r="X6" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="40" t="s">
+      <c r="AA6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="40" t="s">
+      <c r="AD6" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG6" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="40" t="s">
+    </row>
+    <row r="7" spans="1:33" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="B7" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="40" t="s">
+      <c r="C7" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="AD6" s="12" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="40" t="s">
+      <c r="F7" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AG6" s="12" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="L7" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="M7" s="1"/>
+      <c r="N7" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="40" t="s">
+      <c r="O7" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="40" t="s">
+      <c r="R7" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="S7" s="1"/>
+      <c r="T7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="40" t="s">
+      <c r="U7" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="V7" s="1"/>
+      <c r="W7" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="40" t="s">
+      <c r="X7" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="40" t="s">
+      <c r="AA7" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="40" t="s">
+      <c r="AD7" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG7" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="40" t="s">
+    </row>
+    <row r="8" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="B8" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="40" t="s">
+      <c r="C8" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="40" t="s">
+      <c r="F8" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="40" t="s">
+      <c r="I8" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="M8" s="1"/>
+      <c r="N8" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="O8" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="40" t="s">
+      <c r="R8" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="S8" s="1"/>
+      <c r="T8" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="40" t="s">
+      <c r="U8" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="V8" s="1"/>
+      <c r="W8" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="40" t="s">
+      <c r="X8" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="40" t="s">
+      <c r="AA8" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="40" t="s">
+      <c r="AD8" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG8" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="40" t="s">
+    </row>
+    <row r="9" spans="1:33" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="12" t="s">
+      <c r="B9" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="40" t="s">
+      <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="X8" s="12" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="40" t="s">
+      <c r="F9" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="40" t="s">
+      <c r="I9" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="AD8" s="12" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="40" t="s">
+      <c r="L9" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AG8" s="12" t="s">
+      <c r="M9" s="1"/>
+      <c r="N9" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="AJ8" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="R9" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="S9" s="1"/>
+      <c r="T9" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="40" t="s">
+      <c r="U9" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="V9" s="1"/>
+      <c r="W9" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="40" t="s">
+      <c r="X9" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40" t="s">
+      <c r="AA9" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="40" t="s">
+      <c r="AD9" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG9" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD9" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG9" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ9" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2917,444 +2883,423 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="42"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="40"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="I11" s="42"/>
+      <c r="H11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" s="40"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="L11" s="42"/>
+      <c r="K11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="L11" s="40"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="O11" s="42"/>
+      <c r="N11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="O11" s="40"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="R11" s="42"/>
+      <c r="Q11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="R11" s="40"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="U11" s="42"/>
+      <c r="T11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="U11" s="40"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="X11" s="42"/>
+      <c r="W11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="X11" s="40"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA11" s="42"/>
+      <c r="Z11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA11" s="40"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD11" s="42"/>
+      <c r="AC11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD11" s="40"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AJ11" s="42"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="AF11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG11" s="40"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-    </row>
-    <row r="13" spans="1:36" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>113</v>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+    </row>
+    <row r="13" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>113</v>
+      <c r="H13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>113</v>
+      <c r="K13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" s="39" t="s">
-        <v>113</v>
+      <c r="N13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="R13" s="39" t="s">
-        <v>113</v>
+      <c r="Q13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="S13" s="1"/>
-      <c r="T13" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>113</v>
+      <c r="T13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="U13" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="V13" s="1"/>
-      <c r="W13" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="X13" s="39" t="s">
-        <v>113</v>
+      <c r="W13" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="39" t="s">
+      <c r="Z13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG13" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD14" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG14" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="AA13" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD13" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG13" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="39" t="s">
+    </row>
+    <row r="15" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="AJ13" s="39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="40" t="s">
+      <c r="C15" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="O14" s="12" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="R14" s="12" t="s">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="R15" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="U14" s="12" t="s">
+      <c r="S15" s="1"/>
+      <c r="T15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="X14" s="12" t="s">
+      <c r="V15" s="1"/>
+      <c r="W15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="X15" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA14" s="12" t="s">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA15" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD14" s="12" t="s">
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD15" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="AG14" s="12" t="s">
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG15" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="AJ14" s="12" t="s">
+    </row>
+    <row r="16" spans="1:33" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="20" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="40" t="s">
+      <c r="C16" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="L15" s="12" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="O15" s="12" t="s">
+      <c r="M16" s="1"/>
+      <c r="N16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="R15" s="12" t="s">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="R16" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="U15" s="12" t="s">
+      <c r="S16" s="1"/>
+      <c r="T16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="U16" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="X15" s="12" t="s">
+      <c r="V16" s="1"/>
+      <c r="W16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="X16" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA15" s="12" t="s">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA16" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD15" s="12" t="s">
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD16" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG15" s="12" t="s">
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG16" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ15" s="12" t="s">
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA16" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD16" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG16" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ16" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3383,48 +3328,42 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AC11:AD11"/>
+  <mergeCells count="33">
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AC11:AD11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/CheckSheetData.xlsx
+++ b/docs/CheckSheetData.xlsx
@@ -2198,7 +2198,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,5 +3366,6 @@
     <mergeCell ref="AC11:AD11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>